--- a/models/Random Forests/Error_BBoxes/metrics.xlsx
+++ b/models/Random Forests/Error_BBoxes/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7334622054260934</v>
+        <v>0.7401911788211132</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9988450259047126</v>
+        <v>0.9987568272601288</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8608071688323545</v>
+        <v>0.8474588037491251</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8375990266408161</v>
+        <v>0.8290984392555076</v>
       </c>
       <c r="F2" t="n">
-        <v>0.820609736503856</v>
+        <v>0.8035724614395887</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9159542949879227</v>
+        <v>0.9152266469691741</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9034887948435387</v>
+        <v>0.9058756432436987</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8023428213980635</v>
+        <v>0.8018940897136668</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9110303771360786</v>
+        <v>0.9021021383512833</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8924927658446336</v>
+        <v>0.8877955004399721</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9025104583318043</v>
+        <v>0.9015254027375142</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8897929537453391</v>
+        <v>0.9090286246509676</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7402043160017429</v>
+        <v>0.729954578197973</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9987920496314608</v>
+        <v>0.9988096322738764</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8453942363287787</v>
+        <v>0.852314483734518</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8624314878900793</v>
+        <v>0.8389026881515882</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8341685411311054</v>
+        <v>0.7957286311053986</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9145929035110421</v>
+        <v>0.9189046504773406</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9082889880501208</v>
+        <v>0.9084392791413775</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8199721152173851</v>
+        <v>0.8402332636053621</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9032110662547633</v>
+        <v>0.9001640758772695</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8971893261659258</v>
+        <v>0.8885469430405452</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8997972551466</v>
+        <v>0.9357890536127115</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8956444970259978</v>
+        <v>0.9048463043607412</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.738275339979287</v>
+        <v>0.7362544036924237</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9987342210055947</v>
+        <v>0.9988132287234613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8485433911019142</v>
+        <v>0.8462838737409085</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8411870074873186</v>
+        <v>0.8519695848548541</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8129153277634962</v>
+        <v>0.8311206619537275</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9196012965119622</v>
+        <v>0.9133631581406718</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9112574542860977</v>
+        <v>0.9045482167267034</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8391786961029527</v>
+        <v>0.8459187997436369</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9067934268312493</v>
+        <v>0.9082251788665503</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8907610810902281</v>
+        <v>0.8886835529432999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9038934351032989</v>
+        <v>0.9014153150343106</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8899248689950614</v>
+        <v>0.8964957177051984</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7517603822043752</v>
+        <v>0.7434125249880122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9988103743983939</v>
+        <v>0.9986809592998364</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8567888226164754</v>
+        <v>0.860122942089407</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8356268406745497</v>
+        <v>0.8460677795282439</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7919569408740361</v>
+        <v>0.7638536311053985</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9189199268173454</v>
+        <v>0.9145955993357486</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9145104311139046</v>
+        <v>0.9058335096140691</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8189458937207352</v>
+        <v>0.8204064336785141</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9041022322366628</v>
+        <v>0.9083894782804371</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8840659619593421</v>
+        <v>0.8898539913359356</v>
       </c>
       <c r="L5" t="n">
-        <v>0.919794227734762</v>
+        <v>0.9376754522769806</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8895920465006047</v>
+        <v>0.8929608361829795</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.748147110148691</v>
+        <v>0.729676234183382</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9988026677207117</v>
+        <v>0.9988008409526686</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8430263077812605</v>
+        <v>0.8555183195885699</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8460856379051036</v>
+        <v>0.8643889212841571</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8181499035989717</v>
+        <v>0.7990094794344473</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9186281037928457</v>
+        <v>0.919341823383943</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8982233942417663</v>
+        <v>0.9106619366961761</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8225876347996706</v>
+        <v>0.8339942596936133</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8989368598470115</v>
+        <v>0.9014071257512692</v>
       </c>
       <c r="K6" t="n">
-        <v>0.898642150447869</v>
+        <v>0.8937968175357054</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9193103005394299</v>
+        <v>0.9376444901104545</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8916860813121766</v>
+        <v>0.8925925594688638</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.76208866940066</v>
+        <v>0.7493590150617776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9987341639190933</v>
+        <v>0.9987359906871365</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8508713786859804</v>
+        <v>0.8431337679924531</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8426467356828229</v>
+        <v>0.8594817499035259</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7621296593830336</v>
+        <v>0.829407937017995</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9211118569559466</v>
+        <v>0.9196219645013802</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9091685818645565</v>
+        <v>0.9092063718210285</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8497354212648852</v>
+        <v>0.8337559610689229</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8974885288459102</v>
+        <v>0.895942028013609</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8905202951196951</v>
+        <v>0.8910170263531961</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9190992991082896</v>
+        <v>0.9391673700047705</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8969885632991972</v>
+        <v>0.9015707816345864</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7420481740413689</v>
+        <v>0.7387772897558454</v>
       </c>
       <c r="C8" t="n">
-        <v>0.998797472849089</v>
+        <v>0.9986814159918471</v>
       </c>
       <c r="D8" t="n">
-        <v>0.85700136560056</v>
+        <v>0.8438108624204986</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8508033552007864</v>
+        <v>0.8393747704616236</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8003020565552701</v>
+        <v>0.8238062339331619</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9160351697291235</v>
+        <v>0.9173055771221532</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9035669809603775</v>
+        <v>0.9132963744663255</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8369451269372573</v>
+        <v>0.837634559450222</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9101127593211042</v>
+        <v>0.8974672928672445</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8966933000157938</v>
+        <v>0.8821223996525349</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9032936864702212</v>
+        <v>0.9028774173424828</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8929518927762188</v>
+        <v>0.8952423631291447</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7260109607877053</v>
+        <v>0.7316656959749869</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9988470239322598</v>
+        <v>0.9988186519410895</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8530529160707222</v>
+        <v>0.8493916610876115</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8244280854810618</v>
+        <v>0.8529665481543368</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8066283740359896</v>
+        <v>0.8320163881748073</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9154396171210031</v>
+        <v>0.9154645534995398</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9026102869473925</v>
+        <v>0.9054821064556104</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8296212877542373</v>
+        <v>0.8222138518762654</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9116102683780629</v>
+        <v>0.9050794598163125</v>
       </c>
       <c r="K9" t="n">
-        <v>0.892872453238871</v>
+        <v>0.8891422096748719</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9014279292503028</v>
+        <v>0.9194605243844263</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8903704422961812</v>
+        <v>0.8969198907115694</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.729602063851077</v>
+        <v>0.7392795132236671</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9988319530959038</v>
+        <v>0.9987562278518647</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8481430304920726</v>
+        <v>0.8466053033991662</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8517552843325354</v>
+        <v>0.8770924388408826</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7895991323907456</v>
+        <v>0.8162034061696658</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9193539545951229</v>
+        <v>0.9179541476161721</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9027738262417803</v>
+        <v>0.9143240875354389</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8470641705526318</v>
+        <v>0.8357425836759677</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9102204294585495</v>
+        <v>0.9090986481995615</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8972781666704271</v>
+        <v>0.8899033471717696</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9195213019705699</v>
+        <v>0.9200121096473524</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9040203168649015</v>
+        <v>0.8810178746760411</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7482231963198379</v>
+        <v>0.7346366146361329</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9988390889085723</v>
+        <v>0.9987818882342209</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8443481634764615</v>
+        <v>0.8503364550683181</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8424658225607204</v>
+        <v>0.8148070790605874</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8267440552699229</v>
+        <v>0.7851229113110541</v>
       </c>
       <c r="G11" t="n">
-        <v>0.912902172115827</v>
+        <v>0.9166974439987348</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9117065900906047</v>
+        <v>0.9044917489756533</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8251541494228465</v>
+        <v>0.8447724680530906</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9064961231299298</v>
+        <v>0.9084146261499096</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8951741978971594</v>
+        <v>0.8904219359897113</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9200476588015118</v>
+        <v>0.8848906920846941</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9027040390341375</v>
+        <v>0.9043649574325778</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7360915573908683</v>
+        <v>0.7414695907111375</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9986668018475019</v>
+        <v>0.9988712286088316</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8389309325644382</v>
+        <v>0.8457798568211559</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8415798917782363</v>
+        <v>0.8380780970113617</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8072718508997428</v>
+        <v>0.8391139138817481</v>
       </c>
       <c r="G12" t="n">
-        <v>0.916424267095123</v>
+        <v>0.9196412845784449</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9101902137912492</v>
+        <v>0.9052662258996724</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8319932238633011</v>
+        <v>0.8287315114378535</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9047719106866896</v>
+        <v>0.9111631951429964</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8963795379165631</v>
+        <v>0.8876153516391777</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8835352372390003</v>
+        <v>0.9355826391692047</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8902053086784903</v>
+        <v>0.8963024762376878</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7322010360856457</v>
+        <v>0.7420210786063203</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9988539884854244</v>
+        <v>0.99871201435657</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8475015976385381</v>
+        <v>0.8514567039956178</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8301101551271789</v>
+        <v>0.8596525691604466</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7764162917737788</v>
+        <v>0.8361278920308484</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9189664297935357</v>
+        <v>0.9159028496664366</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9062109748114737</v>
+        <v>0.9092280901868171</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8298009726043061</v>
+        <v>0.8306821009867293</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9098240245234572</v>
+        <v>0.9062172611995569</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8911041041492747</v>
+        <v>0.8869529258139482</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9168952515504019</v>
+        <v>0.9015827400829327</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9122357941968788</v>
+        <v>0.8931390655034275</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7427953511896812</v>
+        <v>0.7351180375679576</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9987844000402802</v>
+        <v>0.9987276560579396</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8616216791941815</v>
+        <v>0.8468658706369252</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8461112607936417</v>
+        <v>0.856103410872335</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7855784061696658</v>
+        <v>0.7772075835475579</v>
       </c>
       <c r="G14" t="n">
-        <v>0.910963424847596</v>
+        <v>0.9205668510610766</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9119937068863292</v>
+        <v>0.9126847852857203</v>
       </c>
       <c r="I14" t="n">
-        <v>0.838571418962613</v>
+        <v>0.846052842720025</v>
       </c>
       <c r="J14" t="n">
-        <v>0.903585676369646</v>
+        <v>0.9068537817179831</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8894312938561856</v>
+        <v>0.8881494522912389</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9003029705331915</v>
+        <v>0.9381089226083446</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9022012918112252</v>
+        <v>0.9014941238623507</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7384264175565283</v>
+        <v>0.7577342414044522</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9988331519124319</v>
+        <v>0.9987750378540591</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8379362123794163</v>
+        <v>0.8362021088828703</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8489208493444034</v>
+        <v>0.8363768925026652</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7819481041131104</v>
+        <v>0.796383354755784</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9214841054175293</v>
+        <v>0.9122468620600415</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9115949576904516</v>
+        <v>0.9080476970062101</v>
       </c>
       <c r="I15" t="n">
-        <v>0.839646164977597</v>
+        <v>0.829901865167179</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9102487440967705</v>
+        <v>0.9015587580901627</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8909831823514812</v>
+        <v>0.8896146155321405</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9019726340317785</v>
+        <v>0.9360459249201863</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8965535304417596</v>
+        <v>0.8991129418122791</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7443655179661893</v>
+        <v>0.7295913898918154</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9987209198507805</v>
+        <v>0.998771184515218</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8533363067161681</v>
+        <v>0.8423981885822101</v>
       </c>
       <c r="E16" t="n">
-        <v>0.832295865164596</v>
+        <v>0.8343449197964766</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8111246786632391</v>
+        <v>0.7214885925449871</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9179166307223372</v>
+        <v>0.9179283126293996</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9131730141486466</v>
+        <v>0.9067448122425559</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8420171402051098</v>
+        <v>0.8227999896224791</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9065078588023505</v>
+        <v>0.9062085060153705</v>
       </c>
       <c r="K16" t="n">
-        <v>0.887476802757158</v>
+        <v>0.8956592952550709</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9189227000844006</v>
+        <v>0.9211783512531651</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8965602379968304</v>
+        <v>0.8947380188693107</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7346656259100235</v>
+        <v>0.7397716101147532</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9987859984623181</v>
+        <v>0.9987860555488194</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8489622957305012</v>
+        <v>0.8538327158333587</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8412196184363671</v>
+        <v>0.8407716061125342</v>
       </c>
       <c r="F17" t="n">
-        <v>0.84260764781491</v>
+        <v>0.8134567802056556</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9181419567374051</v>
+        <v>0.9203808391563147</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9035808807144821</v>
+        <v>0.9051754431306764</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8602849398151841</v>
+        <v>0.8064203222604547</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9029070564549179</v>
+        <v>0.9119981044094831</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8876312160149815</v>
+        <v>0.891262395365628</v>
       </c>
       <c r="L17" t="n">
-        <v>0.903367078272357</v>
+        <v>0.9215235220725846</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9027810162137577</v>
+        <v>0.895381305341322</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7500353061729422</v>
+        <v>0.7307326824590175</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9988068921218117</v>
+        <v>0.9988298408953539</v>
       </c>
       <c r="D18" t="n">
-        <v>0.846921027205502</v>
+        <v>0.8436335055232647</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7954881975540237</v>
+        <v>0.8392784905168137</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7983081619537274</v>
+        <v>0.8102177056555271</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9161915275621118</v>
+        <v>0.9147946410599264</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9026795685342579</v>
+        <v>0.9140495673918718</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8350017440000153</v>
+        <v>0.8406003203579092</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8991635632332933</v>
+        <v>0.9071956064622946</v>
       </c>
       <c r="K18" t="n">
-        <v>0.894409887525101</v>
+        <v>0.8900930145980461</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9183401526549485</v>
+        <v>0.9013419232321749</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8948389516027544</v>
+        <v>0.8985900719241549</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7477863850639014</v>
+        <v>0.7221842095467892</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9986753077362028</v>
+        <v>0.9988203645361299</v>
       </c>
       <c r="D19" t="n">
-        <v>0.848061722102188</v>
+        <v>0.8443719378594686</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8451810722945918</v>
+        <v>0.8471423879445086</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8203615038560411</v>
+        <v>0.8032214010282777</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9155795753536922</v>
+        <v>0.9165696169772256</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9103053211299283</v>
+        <v>0.9032238307809186</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8327331026577025</v>
+        <v>0.831025135700497</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9062357029705036</v>
+        <v>0.9189871630371772</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8869726681482819</v>
+        <v>0.8917196419304619</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9536484899636711</v>
+        <v>0.9203182910718872</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8924239123699452</v>
+        <v>0.9077605773352352</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7318895754282173</v>
+        <v>0.7465854278013395</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9987390733582093</v>
+        <v>0.9988088901493589</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8421956308389885</v>
+        <v>0.8610078246249353</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8595997704810348</v>
+        <v>0.848044624201517</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7743613431876606</v>
+        <v>0.7896401028277635</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9200820519179895</v>
+        <v>0.9168888475529101</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9045178110145996</v>
+        <v>0.9043557920058171</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8357411423536409</v>
+        <v>0.8265046684430164</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9077589187384786</v>
+        <v>0.907824303199107</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8802521660161098</v>
+        <v>0.8919244686491731</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9194249752302668</v>
+        <v>0.9307949708267585</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8997990288737887</v>
+        <v>0.897507919706094</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7297487623681083</v>
+        <v>0.7273150996564628</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9988412011091222</v>
+        <v>0.9988172247785557</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8439254549465932</v>
+        <v>0.8498300607102645</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8512358385012628</v>
+        <v>0.8165859286860661</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7922011568123393</v>
+        <v>0.8201831619537275</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9177276983408098</v>
+        <v>0.9182513622900852</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9028246472177253</v>
+        <v>0.912446751996678</v>
       </c>
       <c r="I21" t="n">
-        <v>0.83000948390091</v>
+        <v>0.8430135743736734</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9003199926679991</v>
+        <v>0.9028139161976123</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8875265111346765</v>
+        <v>0.895505939622301</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9373463359142783</v>
+        <v>0.9206095647866134</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8872670801501725</v>
+        <v>0.8914142656281242</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/Error_BBoxes/metrics.xlsx
+++ b/models/Random Forests/Error_BBoxes/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7401911788211132</v>
+        <v>0.7371039413731419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9987568272601288</v>
+        <v>0.9987844571267815</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8474588037491251</v>
+        <v>0.8484411612549831</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8290984392555076</v>
+        <v>0.8613708555948354</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8035724614395887</v>
+        <v>0.7813415809768638</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9152266469691741</v>
+        <v>0.9109629755434783</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9058756432436987</v>
+        <v>0.9085374461547416</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8018940897136668</v>
+        <v>0.8254933406104096</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9021021383512833</v>
+        <v>0.9036458449758656</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8877955004399721</v>
+        <v>0.8977491623609575</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9015254027375142</v>
+        <v>0.9208354739275623</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9090286246509676</v>
+        <v>0.8987852298359715</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.729954578197973</v>
+        <v>0.7293699736599528</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9988096322738764</v>
+        <v>0.9988151696645072</v>
       </c>
       <c r="D3" t="n">
-        <v>0.852314483734518</v>
+        <v>0.8482091232768327</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8389026881515882</v>
+        <v>0.8424619403048813</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7957286311053986</v>
+        <v>0.7725514138817483</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9189046504773406</v>
+        <v>0.915846237347596</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9084392791413775</v>
+        <v>0.9132129759416975</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8402332636053621</v>
+        <v>0.8441440515186253</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9001640758772695</v>
+        <v>0.8986639588931062</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8885469430405452</v>
+        <v>0.8912426530312945</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9357890536127115</v>
+        <v>0.920444433231808</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9048463043607412</v>
+        <v>0.8885574859828068</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7362544036924237</v>
+        <v>0.729126935818304</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9988132287234613</v>
+        <v>0.998779776033671</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8462838737409085</v>
+        <v>0.8563314034874168</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8519695848548541</v>
+        <v>0.8383490784689315</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8311206619537275</v>
+        <v>0.8193107326478151</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9133631581406718</v>
+        <v>0.9175805512422359</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9045482167267034</v>
+        <v>0.9045482167267035</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8459187997436369</v>
+        <v>0.8287963709425576</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9082251788665503</v>
+        <v>0.9049894863277554</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8886835529432999</v>
+        <v>0.8902650549400961</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9014153150343106</v>
+        <v>0.9207013045392829</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8964957177051984</v>
+        <v>0.9028464947275423</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7434125249880122</v>
+        <v>0.7344362726315306</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9986809592998364</v>
+        <v>0.9987326225835569</v>
       </c>
       <c r="D5" t="n">
-        <v>0.860122942089407</v>
+        <v>0.8616202527312011</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8460677795282439</v>
+        <v>0.8343270614196167</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7638536311053985</v>
+        <v>0.8327964331619536</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9145955993357486</v>
+        <v>0.91916210173683</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9058335096140691</v>
+        <v>0.9182651021914265</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8204064336785141</v>
+        <v>0.817009717395127</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9083894782804371</v>
+        <v>0.9126431938315817</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8898539913359356</v>
+        <v>0.8959758776877779</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9376754522769806</v>
+        <v>0.9189043521338667</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8929608361829795</v>
+        <v>0.8971853182479356</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.729676234183382</v>
+        <v>0.7428432471607269</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9988008409526686</v>
+        <v>0.9988371479675265</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8555183195885699</v>
+        <v>0.8534941686193359</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8643889212841571</v>
+        <v>0.826762874142701</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7990094794344473</v>
+        <v>0.7901397814910025</v>
       </c>
       <c r="G6" t="n">
-        <v>0.919341823383943</v>
+        <v>0.9113839735018404</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9106619366961761</v>
+        <v>0.9151867410245594</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8339942596936133</v>
+        <v>0.8488711083096075</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9014071257512692</v>
+        <v>0.904869894237375</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8937968175357054</v>
+        <v>0.8945709990749307</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9376444901104545</v>
+        <v>0.9542883747385418</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8925925594688638</v>
+        <v>0.8974248737861721</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7493590150617776</v>
+        <v>0.7357694227741784</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9987359906871365</v>
+        <v>0.9988143704534883</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8431337679924531</v>
+        <v>0.8468035817534464</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8594817499035259</v>
+        <v>0.8593482003026607</v>
       </c>
       <c r="F7" t="n">
-        <v>0.829407937017995</v>
+        <v>0.8069665809768637</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9196219645013802</v>
+        <v>0.9193732746721878</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9092063718210285</v>
+        <v>0.9152862111398711</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8337559610689229</v>
+        <v>0.8129831432549479</v>
       </c>
       <c r="J7" t="n">
-        <v>0.895942028013609</v>
+        <v>0.9147263688264775</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8910170263531961</v>
+        <v>0.8914065849146002</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9391673700047705</v>
+        <v>0.8843482807970349</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9015707816345864</v>
+        <v>0.8897737893022801</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7387772897558454</v>
+        <v>0.7428194360208357</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9986814159918471</v>
+        <v>0.9987181796987157</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8438108624204986</v>
+        <v>0.8398971234898512</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8393747704616236</v>
+        <v>0.8512389443059342</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8238062339331619</v>
+        <v>0.8078864074550129</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9173055771221532</v>
+        <v>0.9160178715205888</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9132963744663255</v>
+        <v>0.9095920899974328</v>
       </c>
       <c r="I8" t="n">
-        <v>0.837634559450222</v>
+        <v>0.8372679831384506</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8974672928672445</v>
+        <v>0.9026157137300661</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8821223996525349</v>
+        <v>0.8883031604656934</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9028774173424828</v>
+        <v>0.9025586217019557</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8952423631291447</v>
+        <v>0.881744845882743</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7316656959749869</v>
+        <v>0.7431689397638372</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9988186519410895</v>
+        <v>0.9988015259906848</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8493916610876115</v>
+        <v>0.8513944151121391</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8529665481543368</v>
+        <v>0.8479537794148818</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8320163881748073</v>
+        <v>0.8002618894601542</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9154645534995398</v>
+        <v>0.9191917558086036</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9054821064556104</v>
+        <v>0.9111327908664716</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8222138518762654</v>
+        <v>0.8391445848078861</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9050794598163125</v>
+        <v>0.9077564970917886</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8891422096748719</v>
+        <v>0.8948012087949281</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9194605243844263</v>
+        <v>0.9189559557447434</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8969198907115694</v>
+        <v>0.8907866301179443</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7392795132236671</v>
+        <v>0.7347759234890601</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9987562278518647</v>
+        <v>0.998828071213812</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8466053033991662</v>
+        <v>0.8502090243753994</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8770924388408826</v>
+        <v>0.8497908628779474</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8162034061696658</v>
+        <v>0.7580454691516709</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9179541476161721</v>
+        <v>0.9162434221877157</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9143240875354389</v>
+        <v>0.9109056167603234</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8357425836759677</v>
+        <v>0.8312192337738334</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9090986481995615</v>
+        <v>0.911842560179783</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8899033471717696</v>
+        <v>0.889122819882223</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9200121096473524</v>
+        <v>0.9009107463946278</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8810178746760411</v>
+        <v>0.8957476656111318</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7346366146361329</v>
+        <v>0.7365787278392184</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9987818882342209</v>
+        <v>0.9987809748501993</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8503364550683181</v>
+        <v>0.8490626236267916</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8148070790605874</v>
+        <v>0.8520969228463768</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7851229113110541</v>
+        <v>0.8195525385604112</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9166974439987348</v>
+        <v>0.9163391239648032</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9044917489756533</v>
+        <v>0.9143553619821745</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8447724680530906</v>
+        <v>0.8417677914425811</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9084146261499096</v>
+        <v>0.9047184481789963</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8904219359897113</v>
+        <v>0.8930903239999098</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8848906920846941</v>
+        <v>0.8853425103665921</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9043649574325778</v>
+        <v>0.8967710468704784</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7414695907111375</v>
+        <v>0.7494208692872423</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9988712286088316</v>
+        <v>0.9988092897548683</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8457798568211559</v>
+        <v>0.843328242445452</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8380780970113617</v>
+        <v>0.8497248645286825</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8391139138817481</v>
+        <v>0.797732969151671</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9196412845784449</v>
+        <v>0.9211965507821486</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9052662258996724</v>
+        <v>0.912086661491904</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8287315114378535</v>
+        <v>0.8483325342001766</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9111631951429964</v>
+        <v>0.8998684487005816</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8876153516391777</v>
+        <v>0.8927483585659168</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9355826391692047</v>
+        <v>0.9167358537301384</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8963024762376878</v>
+        <v>0.8993186401677784</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7420210786063203</v>
+        <v>0.7404380483404456</v>
       </c>
       <c r="C13" t="n">
-        <v>0.99871201435657</v>
+        <v>0.9988179098165719</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8514567039956178</v>
+        <v>0.8570926592313077</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8596525691604466</v>
+        <v>0.8371913897777099</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8361278920308484</v>
+        <v>0.7932053341902314</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9159028496664366</v>
+        <v>0.9200079167385553</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9092280901868171</v>
+        <v>0.9106923424082802</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8306821009867293</v>
+        <v>0.8239761086411116</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9062172611995569</v>
+        <v>0.9068709195253273</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8869529258139482</v>
+        <v>0.8935690756074999</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9015827400829327</v>
+        <v>0.9182587336244542</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8931390655034275</v>
+        <v>0.8889516346950522</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7351180375679576</v>
+        <v>0.7405064711562251</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9987276560579396</v>
+        <v>0.9987628784292717</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8468658706369252</v>
+        <v>0.8541550964669364</v>
       </c>
       <c r="E14" t="n">
-        <v>0.856103410872335</v>
+        <v>0.839646528370361</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7772075835475579</v>
+        <v>0.7593541131105399</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9205668510610766</v>
+        <v>0.9210752386703474</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9126847852857203</v>
+        <v>0.9071300960516444</v>
       </c>
       <c r="I14" t="n">
-        <v>0.846052842720025</v>
+        <v>0.8197064314684864</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9068537817179831</v>
+        <v>0.9098655650782155</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8881494522912389</v>
+        <v>0.8903034819837099</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9381089226083446</v>
+        <v>0.9196015742541559</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9014941238623507</v>
+        <v>0.893155674687412</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7577342414044522</v>
+        <v>0.7435499180020977</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9987750378540591</v>
+        <v>0.9987721835289916</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8362021088828703</v>
+        <v>0.8356957145248167</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8363768925026652</v>
+        <v>0.8619446530078555</v>
       </c>
       <c r="F15" t="n">
-        <v>0.796383354755784</v>
+        <v>0.8213745179948586</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9122468620600415</v>
+        <v>0.9160230385179434</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9080476970062101</v>
+        <v>0.9118586186511243</v>
       </c>
       <c r="I15" t="n">
-        <v>0.829901865167179</v>
+        <v>0.8440489242450593</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9015587580901627</v>
+        <v>0.9005863738038928</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8896146155321405</v>
+        <v>0.8900295570948312</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9360459249201863</v>
+        <v>0.902345326776999</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8991129418122791</v>
+        <v>0.9026292977062078</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7295913898918154</v>
+        <v>0.7256138347649211</v>
       </c>
       <c r="C16" t="n">
-        <v>0.998771184515218</v>
+        <v>0.9987629355157731</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8423981885822101</v>
+        <v>0.8609388789142145</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8343449197964766</v>
+        <v>0.8490866216687333</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7214885925449871</v>
+        <v>0.8171224293059125</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9179283126293996</v>
+        <v>0.9199578193294226</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9067448122425559</v>
+        <v>0.9105333639707081</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8227999896224791</v>
+        <v>0.8314407169713782</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9062085060153705</v>
+        <v>0.9054691586528788</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8956592952550709</v>
+        <v>0.8876019550551657</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9211783512531651</v>
+        <v>0.8846888646288209</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8947380188693107</v>
+        <v>0.898544716075582</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7397716101147532</v>
+        <v>0.7347663442948509</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9987860555488194</v>
+        <v>0.998784856732291</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8538327158333587</v>
+        <v>0.8571877567633365</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8407716061125342</v>
+        <v>0.8553122071323251</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8134567802056556</v>
+        <v>0.8234101863753212</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9203808391563147</v>
+        <v>0.9129194703243616</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9051754431306764</v>
+        <v>0.9069780674911248</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8064203222604547</v>
+        <v>0.8304644613153891</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9119981044094831</v>
+        <v>0.8996713639161231</v>
       </c>
       <c r="K17" t="n">
-        <v>0.891262395365628</v>
+        <v>0.8895479851537647</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9215235220725846</v>
+        <v>0.9473941323254194</v>
       </c>
       <c r="M17" t="n">
-        <v>0.895381305341322</v>
+        <v>0.8909089631461371</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7307326824590175</v>
+        <v>0.7375081833687673</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9988298408953539</v>
+        <v>0.9987647622838163</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8436335055232647</v>
+        <v>0.842678726301695</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8392784905168137</v>
+        <v>0.8028908829880326</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8102177056555271</v>
+        <v>0.772709672236504</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9147946410599264</v>
+        <v>0.915689205558431</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9140495673918718</v>
+        <v>0.9135478731421567</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8406003203579092</v>
+        <v>0.8276971224480187</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9071956064622946</v>
+        <v>0.9023860298555506</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8900930145980461</v>
+        <v>0.8906383965840119</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9013419232321749</v>
+        <v>0.9191165003119153</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8985900719241549</v>
+        <v>0.8991998206208131</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7221842095467892</v>
+        <v>0.7275983701137899</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9988203645361299</v>
+        <v>0.9987923350639677</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8443719378594686</v>
+        <v>0.8504296506497063</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8471423879445086</v>
+        <v>0.8417274175001223</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8032214010282777</v>
+        <v>0.8189042416452442</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9165696169772256</v>
+        <v>0.9206284057252128</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9032238307809186</v>
+        <v>0.9079944870100283</v>
       </c>
       <c r="I19" t="n">
-        <v>0.831025135700497</v>
+        <v>0.8416140503943939</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9189871630371772</v>
+        <v>0.9010656735679872</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8917196419304619</v>
+        <v>0.890661664335191</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9203182910718872</v>
+        <v>0.9208652893471798</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9077605773352352</v>
+        <v>0.8937488142000857</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7465854278013395</v>
+        <v>0.7420952489386253</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9988088901493589</v>
+        <v>0.998759795758199</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8610078246249353</v>
+        <v>0.8616473555278293</v>
       </c>
       <c r="E20" t="n">
-        <v>0.848044624201517</v>
+        <v>0.833595644419529</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7896401028277635</v>
+        <v>0.8012258997429306</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9168888475529101</v>
+        <v>0.9205798808804923</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9043557920058171</v>
+        <v>0.9126052960669342</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8265046684430164</v>
+        <v>0.8426575677589647</v>
       </c>
       <c r="J20" t="n">
-        <v>0.907824303199107</v>
+        <v>0.9089587515330887</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8919244686491731</v>
+        <v>0.8873833792107579</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9307949708267585</v>
+        <v>0.8836441781952955</v>
       </c>
       <c r="M20" t="n">
-        <v>0.897507919706094</v>
+        <v>0.8991717127709933</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7273150996564628</v>
+        <v>0.7413685986350469</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9988172247785557</v>
+        <v>0.9988422286661465</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8498300607102645</v>
+        <v>0.8510558678981163</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8165859286860661</v>
+        <v>0.8495983029883276</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8201831619537275</v>
+        <v>0.8192504820051414</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9182513622900852</v>
+        <v>0.9156177662037037</v>
       </c>
       <c r="H21" t="n">
-        <v>0.912446751996678</v>
+        <v>0.9068607883158667</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8430135743736734</v>
+        <v>0.8421636746416632</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9028139161976123</v>
+        <v>0.9108500575979352</v>
       </c>
       <c r="K21" t="n">
-        <v>0.895505939622301</v>
+        <v>0.8936177263599647</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9206095647866134</v>
+        <v>0.9352477890719606</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8914142656281242</v>
+        <v>0.8984543237858207</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/Error_BBoxes/metrics.xlsx
+++ b/models/Random Forests/Error_BBoxes/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7371039413731419</v>
+        <v>0.7501852889851309</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9987844571267815</v>
+        <v>0.9988247601967338</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8484411612549831</v>
+        <v>0.8465905632817017</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8613708555948354</v>
+        <v>0.8443704572753863</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7813415809768638</v>
+        <v>0.8159535668380462</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9109629755434783</v>
+        <v>0.9271309595698183</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9085374461547416</v>
+        <v>0.908434501100904</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8254933406104096</v>
+        <v>0.836658303794233</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9036458449758656</v>
+        <v>0.9049442201627049</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8977491623609575</v>
+        <v>0.8873276776246024</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9208354739275623</v>
+        <v>0.9197185424388096</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8987852298359715</v>
+        <v>0.8958869272306933</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7293699736599528</v>
+        <v>0.7499006500714881</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9988151696645072</v>
+        <v>0.9988446262992032</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8482091232768327</v>
+        <v>0.8584962988040534</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8424619403048813</v>
+        <v>0.8450055943306641</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7725514138817483</v>
+        <v>0.8325112467866325</v>
       </c>
       <c r="G3" t="n">
-        <v>0.915846237347596</v>
+        <v>0.9180514219576719</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9132129759416975</v>
+        <v>0.9092402524716586</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8441440515186253</v>
+        <v>0.8429607258883591</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8986639588931062</v>
+        <v>0.9067593374970754</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8912426530312945</v>
+        <v>0.8904910341598791</v>
       </c>
       <c r="L3" t="n">
-        <v>0.920444433231808</v>
+        <v>0.9024015173755092</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8885574859828068</v>
+        <v>0.8954879874076832</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.729126935818304</v>
+        <v>0.7279662111714205</v>
       </c>
       <c r="C4" t="n">
-        <v>0.998779776033671</v>
+        <v>0.9987235458298425</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8563314034874168</v>
+        <v>0.8521984647454428</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8383490784689315</v>
+        <v>0.8377908100792678</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8193107326478151</v>
+        <v>0.7927723329048842</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9175805512422359</v>
+        <v>0.9163020563750862</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9045482167267035</v>
+        <v>0.9133658732368487</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8287963709425576</v>
+        <v>0.8321378365367522</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9049894863277554</v>
+        <v>0.9053678220529304</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8902650549400961</v>
+        <v>0.9059915869452403</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9207013045392829</v>
+        <v>0.9448105115408609</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9028464947275423</v>
+        <v>0.8955901977706642</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7344362726315306</v>
+        <v>0.7452949734957379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9987326225835569</v>
+        <v>0.998646536139523</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8616202527312011</v>
+        <v>0.8510363729040503</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8343270614196167</v>
+        <v>0.8298430559254483</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8327964331619536</v>
+        <v>0.8048714652956299</v>
       </c>
       <c r="G5" t="n">
-        <v>0.91916210173683</v>
+        <v>0.9163236229727398</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9182651021914265</v>
+        <v>0.915721881557589</v>
       </c>
       <c r="I5" t="n">
-        <v>0.817009717395127</v>
+        <v>0.8265853824933146</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9126431938315817</v>
+        <v>0.904310866413027</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8959758776877779</v>
+        <v>0.8844516425622165</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9189043521338667</v>
+        <v>0.9365011834428094</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8971853182479356</v>
+        <v>0.906642332082747</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7428432471607269</v>
+        <v>0.7245546495766544</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9988371479675265</v>
+        <v>0.9987401009152336</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8534941686193359</v>
+        <v>0.8529302402544049</v>
       </c>
       <c r="E6" t="n">
-        <v>0.826762874142701</v>
+        <v>0.8642957471440185</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7901397814910025</v>
+        <v>0.7986576156812339</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9113839735018404</v>
+        <v>0.9146337901857603</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9151867410245594</v>
+        <v>0.9084540476301136</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8488711083096075</v>
+        <v>0.8278801703835166</v>
       </c>
       <c r="J6" t="n">
-        <v>0.904869894237375</v>
+        <v>0.9078677065590115</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8945709990749307</v>
+        <v>0.8880532084113626</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9542883747385418</v>
+        <v>0.8931575905471358</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8974248737861721</v>
+        <v>0.900683148513574</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7357694227741784</v>
+        <v>0.7560587034916437</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9988143704534883</v>
+        <v>0.9988223054771758</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8468035817534464</v>
+        <v>0.8549577196372601</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8593482003026607</v>
+        <v>0.857051457748245</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8069665809768637</v>
+        <v>0.8327980398457582</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9193732746721878</v>
+        <v>0.9187956942287785</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9152862111398711</v>
+        <v>0.9095199850230149</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8129831432549479</v>
+        <v>0.8262413868979956</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9147263688264775</v>
+        <v>0.9080528693905349</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8914065849146002</v>
+        <v>0.8910505178132263</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8843482807970349</v>
+        <v>0.9376869197460643</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8897737893022801</v>
+        <v>0.9029126120560956</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7428194360208357</v>
+        <v>0.7441014058972804</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9987181796987157</v>
+        <v>0.998748663890436</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8398971234898512</v>
+        <v>0.8434965650771431</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8512389443059342</v>
+        <v>0.8467906555654855</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8078864074550129</v>
+        <v>0.7781595437017995</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9160178715205888</v>
+        <v>0.9144877663474811</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9095920899974328</v>
+        <v>0.9118987976278332</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8372679831384506</v>
+        <v>0.8190069096992345</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9026157137300661</v>
+        <v>0.9087266460118832</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8883031604656934</v>
+        <v>0.8954918379549198</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9025586217019557</v>
+        <v>0.8845019448827565</v>
       </c>
       <c r="M8" t="n">
-        <v>0.881744845882743</v>
+        <v>0.8920530803967552</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7431689397638372</v>
+        <v>0.7302233430183548</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9988015259906848</v>
+        <v>0.998799413790135</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8513944151121391</v>
+        <v>0.8449011556252093</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8479537794148818</v>
+        <v>0.8402630305976111</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8002618894601542</v>
+        <v>0.8390456298200515</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9191917558086036</v>
+        <v>0.9152401260927074</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9111327908664716</v>
+        <v>0.9140573860035558</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8391445848078861</v>
+        <v>0.8276389891141729</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9077564970917886</v>
+        <v>0.9087499310762096</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8948012087949281</v>
+        <v>0.8920270582793709</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9189559557447434</v>
+        <v>0.9012238083006128</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8907866301179443</v>
+        <v>0.8911443663883778</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7347759234890601</v>
+        <v>0.7383350046746467</v>
       </c>
       <c r="C10" t="n">
-        <v>0.998828071213812</v>
+        <v>0.9987645910243123</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8502090243753994</v>
+        <v>0.8551512431149386</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8497908628779474</v>
+        <v>0.8161720802136173</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7580454691516709</v>
+        <v>0.794057679948586</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9162434221877157</v>
+        <v>0.917082946931792</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9109056167603234</v>
+        <v>0.9121552915277958</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8312192337738334</v>
+        <v>0.8398508327479963</v>
       </c>
       <c r="J10" t="n">
-        <v>0.911842560179783</v>
+        <v>0.9148640301267751</v>
       </c>
       <c r="K10" t="n">
-        <v>0.889122819882223</v>
+        <v>0.8936383500485098</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9009107463946278</v>
+        <v>0.882933195112106</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8957476656111318</v>
+        <v>0.8993914650514023</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7365787278392184</v>
+        <v>0.7389289147156128</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9987809748501993</v>
+        <v>0.9987507190044845</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8490626236267916</v>
+        <v>0.8541512925656554</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8520969228463768</v>
+        <v>0.8559807315878194</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8195525385604112</v>
+        <v>0.8009085796915167</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9163391239648032</v>
+        <v>0.9168553743961353</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9143553619821745</v>
+        <v>0.907678267604147</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8417677914425811</v>
+        <v>0.8388438288823699</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9047184481789963</v>
+        <v>0.9069551183179317</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8930903239999098</v>
+        <v>0.8908224233433361</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8853425103665921</v>
+        <v>0.938095161645444</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8967710468704784</v>
+        <v>0.8941209238028132</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7494208692872423</v>
+        <v>0.7568105333914288</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9988092897548683</v>
+        <v>0.998768016214393</v>
       </c>
       <c r="D12" t="n">
-        <v>0.843328242445452</v>
+        <v>0.8492442599129667</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8497248645286825</v>
+        <v>0.848658020624096</v>
       </c>
       <c r="F12" t="n">
-        <v>0.797732969151671</v>
+        <v>0.7964411953727507</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9211965507821486</v>
+        <v>0.9137522555066713</v>
       </c>
       <c r="H12" t="n">
-        <v>0.912086661491904</v>
+        <v>0.9044022693086046</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8483325342001766</v>
+        <v>0.8319317274440262</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8998684487005816</v>
+        <v>0.9163928343101885</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8927483585659168</v>
+        <v>0.8948297646713749</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9167358537301384</v>
+        <v>0.9198618858023559</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8993186401677784</v>
+        <v>0.9052592981086611</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7404380483404456</v>
+        <v>0.7405494406845348</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9988179098165719</v>
+        <v>0.9987653331488298</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8570926592313077</v>
+        <v>0.8497183211101306</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8371913897777099</v>
+        <v>0.8572098537864805</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7932053341902314</v>
+        <v>0.8096931233933162</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9200079167385553</v>
+        <v>0.9192950957556936</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9106923424082802</v>
+        <v>0.9101706672620395</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8239761086411116</v>
+        <v>0.8331347511460914</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9068709195253273</v>
+        <v>0.9031229555713522</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8935690756074999</v>
+        <v>0.8939258477922429</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9182587336244542</v>
+        <v>0.918985771164361</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8889516346950522</v>
+        <v>0.8923271319324977</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7405064711562251</v>
+        <v>0.730121803559738</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9987628784292717</v>
+        <v>0.9988134570694667</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8541550964669364</v>
+        <v>0.8458816111804267</v>
       </c>
       <c r="E14" t="n">
-        <v>0.839646528370361</v>
+        <v>0.8421001140606766</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7593541131105399</v>
+        <v>0.8050626606683804</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9210752386703474</v>
+        <v>0.9152652871233035</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9071300960516444</v>
+        <v>0.9020453922532327</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8197064314684864</v>
+        <v>0.8401765715938432</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9098655650782155</v>
+        <v>0.8999651282876648</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8903034819837099</v>
+        <v>0.8887984815324563</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9196015742541559</v>
+        <v>0.9032340556309859</v>
       </c>
       <c r="M14" t="n">
-        <v>0.893155674687412</v>
+        <v>0.9030672052301042</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7435499180020977</v>
+        <v>0.7351815339410011</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9987721835289916</v>
+        <v>0.9987744669890456</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8356957145248167</v>
+        <v>0.8570493898542345</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8619446530078555</v>
+        <v>0.8483831569106871</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8213745179948586</v>
+        <v>0.7892906491002571</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9160230385179434</v>
+        <v>0.9149923348717506</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9118586186511243</v>
+        <v>0.9178711310360225</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8440489242450593</v>
+        <v>0.8409592096172711</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9005863738038928</v>
+        <v>0.8996626087319364</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8900295570948312</v>
+        <v>0.8936921126554006</v>
       </c>
       <c r="L15" t="n">
-        <v>0.902345326776999</v>
+        <v>0.9020460258339142</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9026292977062078</v>
+        <v>0.8937820325680546</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7256138347649211</v>
+        <v>0.7340681578826368</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9987629355157731</v>
+        <v>0.9986495617240946</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8609388789142145</v>
+        <v>0.8493217644015703</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8490866216687333</v>
+        <v>0.8377442230091985</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8171224293059125</v>
+        <v>0.825980880462725</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9199578193294226</v>
+        <v>0.9198358332614447</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9105333639707081</v>
+        <v>0.9031386947870275</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8314407169713782</v>
+        <v>0.8386045693761285</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9054691586528788</v>
+        <v>0.8980104868478507</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8876019550551657</v>
+        <v>0.8911626260689064</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8846888646288209</v>
+        <v>0.9198595923085391</v>
       </c>
       <c r="M16" t="n">
-        <v>0.898544716075582</v>
+        <v>0.8959472952263289</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7347663442948509</v>
+        <v>0.7240053512115765</v>
       </c>
       <c r="C17" t="n">
-        <v>0.998784856732291</v>
+        <v>0.998668628615545</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8571877567633365</v>
+        <v>0.8501191572076321</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8553122071323251</v>
+        <v>0.8430955244578235</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8234101863753212</v>
+        <v>0.8255976863753215</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9129194703243616</v>
+        <v>0.9166832909190247</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9069780674911248</v>
+        <v>0.9107666192192768</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8304644613153891</v>
+        <v>0.8426220151415714</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8996713639161231</v>
+        <v>0.9025769673830271</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8895479851537647</v>
+        <v>0.8888379662011237</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9473941323254194</v>
+        <v>0.8851326556823602</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8909089631461371</v>
+        <v>0.8932253054971927</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7375081833687673</v>
+        <v>0.7417684615704623</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9987647622838163</v>
+        <v>0.9987124710485807</v>
       </c>
       <c r="D18" t="n">
-        <v>0.842678726301695</v>
+        <v>0.8461721341407747</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8028908829880326</v>
+        <v>0.8385905547821239</v>
       </c>
       <c r="F18" t="n">
-        <v>0.772709672236504</v>
+        <v>0.8149445694087405</v>
       </c>
       <c r="G18" t="n">
-        <v>0.915689205558431</v>
+        <v>0.9185831733810674</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9135478731421567</v>
+        <v>0.913547438774841</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8276971224480187</v>
+        <v>0.8217146739104324</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9023860298555506</v>
+        <v>0.9059786358603403</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8906383965840119</v>
+        <v>0.8939646273775411</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9191165003119153</v>
+        <v>0.9378176488936186</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8991998206208131</v>
+        <v>0.9093473932205145</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7275983701137899</v>
+        <v>0.739237912151673</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9987923350639677</v>
+        <v>0.99877549454607</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8504296506497063</v>
+        <v>0.8547660981102219</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8417274175001223</v>
+        <v>0.8535884855397616</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8189042416452442</v>
+        <v>0.7671891066838046</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9206284057252128</v>
+        <v>0.9180911853720956</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9079944870100283</v>
+        <v>0.9103917602257667</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8416140503943939</v>
+        <v>0.8269923158302354</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9010656735679872</v>
+        <v>0.9070063454594496</v>
       </c>
       <c r="K19" t="n">
-        <v>0.890661664335191</v>
+        <v>0.8818294375126915</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9208652893471798</v>
+        <v>0.8636414718725918</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8937488142000857</v>
+        <v>0.8945320011064271</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7420952489386253</v>
+        <v>0.7634056717587839</v>
       </c>
       <c r="C20" t="n">
-        <v>0.998759795758199</v>
+        <v>0.9987898232579084</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8616473555278293</v>
+        <v>0.8424324236937403</v>
       </c>
       <c r="E20" t="n">
-        <v>0.833595644419529</v>
+        <v>0.8471400585910051</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8012258997429306</v>
+        <v>0.7951622750642674</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9205798808804923</v>
+        <v>0.9219787892512078</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9126052960669342</v>
+        <v>0.9146902591826336</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8426575677589647</v>
+        <v>0.8483373386079324</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9089587515330887</v>
+        <v>0.9054928162782345</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8873833792107579</v>
+        <v>0.8819866711039913</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8836441781952955</v>
+        <v>0.9027925580712635</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8991717127709933</v>
+        <v>0.9018509019106311</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7413685986350469</v>
+        <v>0.7221360398844804</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9988422286661465</v>
+        <v>0.9988796774110312</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8510558678981163</v>
+        <v>0.8432141254070175</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8495983029883276</v>
+        <v>0.8592985074279201</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8192504820051414</v>
+        <v>0.8169079370179949</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9156177662037037</v>
+        <v>0.9122861761703474</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9068607883158667</v>
+        <v>0.9126782697759838</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8421636746416632</v>
+        <v>0.850021763967134</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9108500575979352</v>
+        <v>0.9055395726874019</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8936177263599647</v>
+        <v>0.892683843437648</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9352477890719606</v>
+        <v>0.9189123793622254</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8984543237858207</v>
+        <v>0.8984198277883148</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/Error_BBoxes/metrics.xlsx
+++ b/models/Random Forests/Error_BBoxes/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7501852889851309</v>
+        <v>0.7519746824633965</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9988247601967338</v>
+        <v>0.9987653331488298</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8465905632817017</v>
+        <v>0.8493545730501202</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8443704572753863</v>
+        <v>0.8476067057428658</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8159535668380462</v>
+        <v>0.7356418701799486</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9271309595698183</v>
+        <v>0.9157278457125603</v>
       </c>
       <c r="H2" t="n">
-        <v>0.908434501100904</v>
+        <v>0.9116010388328724</v>
       </c>
       <c r="I2" t="n">
-        <v>0.836658303794233</v>
+        <v>0.8227567499526767</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9049442201627049</v>
+        <v>0.9116560933846574</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8873276776246024</v>
+        <v>0.8874281520046929</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9197185424388096</v>
+        <v>0.9031170874463322</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8958869272306933</v>
+        <v>0.8970926901064841</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7499006500714881</v>
+        <v>0.7251677180060386</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9988446262992032</v>
+        <v>0.9987812031962048</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8584962988040534</v>
+        <v>0.8506635905784974</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8450055943306641</v>
+        <v>0.8566337270199571</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8325112467866325</v>
+        <v>0.7862917737789203</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9180514219576719</v>
+        <v>0.9187588512911203</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9092402524716586</v>
+        <v>0.9130835344815977</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8429607258883591</v>
+        <v>0.8375648955377621</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9067593374970754</v>
+        <v>0.9077065739138729</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8904910341598791</v>
+        <v>0.8862806288215519</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9024015173755092</v>
+        <v>0.9037489449928443</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8954879874076832</v>
+        <v>0.8920802300244219</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7279662111714205</v>
+        <v>0.7496042424335313</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9987235458298425</v>
+        <v>0.9988051795267712</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8521984647454428</v>
+        <v>0.8555739516448069</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8377908100792678</v>
+        <v>0.8430070090246918</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7927723329048842</v>
+        <v>0.8202594794344473</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9163020563750862</v>
+        <v>0.9220655049459398</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9133658732368487</v>
+        <v>0.9125323223578847</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8321378365367522</v>
+        <v>0.8152589912088948</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9053678220529304</v>
+        <v>0.9063210194461954</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9059915869452403</v>
+        <v>0.8912535818235149</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9448105115408609</v>
+        <v>0.9210166599390849</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8955901977706642</v>
+        <v>0.8980106669290066</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7452949734957379</v>
+        <v>0.7439582653666696</v>
       </c>
       <c r="C5" t="n">
-        <v>0.998646536139523</v>
+        <v>0.9988640927961631</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8510363729040503</v>
+        <v>0.850669296430419</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8298430559254483</v>
+        <v>0.8609344900385199</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8048714652956299</v>
+        <v>0.8083410989717225</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9163236229727398</v>
+        <v>0.9217723340090866</v>
       </c>
       <c r="H5" t="n">
-        <v>0.915721881557589</v>
+        <v>0.9141010399187907</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8265853824933146</v>
+        <v>0.8454143369292725</v>
       </c>
       <c r="J5" t="n">
-        <v>0.904310866413027</v>
+        <v>0.8998464675998574</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8844516425622165</v>
+        <v>0.8935239502718801</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9365011834428094</v>
+        <v>0.8858138233459322</v>
       </c>
       <c r="M5" t="n">
-        <v>0.906642332082747</v>
+        <v>0.8939257658909966</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7245546495766544</v>
+        <v>0.7384442074886308</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9987401009152336</v>
+        <v>0.9988178527300706</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8529302402544049</v>
+        <v>0.8537666230485985</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8642957471440185</v>
+        <v>0.8347851676086313</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7986576156812339</v>
+        <v>0.8189042416452442</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9146337901857603</v>
+        <v>0.9155719371836899</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9084540476301136</v>
+        <v>0.9073789885235811</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8278801703835166</v>
+        <v>0.8159416975510011</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9078677065590115</v>
+        <v>0.9052605244765146</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8880532084113626</v>
+        <v>0.8900454214706346</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8931575905471358</v>
+        <v>0.9385171645077245</v>
       </c>
       <c r="M6" t="n">
-        <v>0.900683148513574</v>
+        <v>0.8904311296992014</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7560587034916437</v>
+        <v>0.7404963445794899</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9988223054771758</v>
+        <v>0.9988906380192902</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8549577196372601</v>
+        <v>0.8438802836188796</v>
       </c>
       <c r="E7" t="n">
-        <v>0.857051457748245</v>
+        <v>0.8628756179580732</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8327980398457582</v>
+        <v>0.7774783097686375</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9187956942287785</v>
+        <v>0.9184964576863355</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9095199850230149</v>
+        <v>0.9105854880486006</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8262413868979956</v>
+        <v>0.8332394872351689</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9080528693905349</v>
+        <v>0.9088514539566727</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8910505178132263</v>
+        <v>0.8913445375781233</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9376869197460643</v>
+        <v>0.9035482642838795</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9029126120560956</v>
+        <v>0.9033866126144198</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7441014058972804</v>
+        <v>0.7432513208340358</v>
       </c>
       <c r="C8" t="n">
-        <v>0.998748663890436</v>
+        <v>0.9988342365559577</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8434965650771431</v>
+        <v>0.8506597866772162</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8467906555654855</v>
+        <v>0.8644393906100654</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781595437017995</v>
+        <v>0.8164058483290489</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9144877663474811</v>
+        <v>0.9198239267023234</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9118987976278332</v>
+        <v>0.9080127304372907</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8190069096992345</v>
+        <v>0.8261284833157332</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9087266460118832</v>
+        <v>0.9104607313223978</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8954918379549198</v>
+        <v>0.8904972036393584</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8845019448827565</v>
+        <v>0.9182163039888445</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8920530803967552</v>
+        <v>0.8938583709329059</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7302233430183548</v>
+        <v>0.7463604535830565</v>
       </c>
       <c r="C9" t="n">
-        <v>0.998799413790135</v>
+        <v>0.9988123724259411</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8449011556252093</v>
+        <v>0.8422636255743891</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8402630305976111</v>
+        <v>0.8353791527520146</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8390456298200515</v>
+        <v>0.8075297236503856</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9152401260927074</v>
+        <v>0.9192050102800783</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9140573860035558</v>
+        <v>0.912920212370868</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8276389891141729</v>
+        <v>0.842354890070346</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9087499310762096</v>
+        <v>0.905559132141436</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8920270582793709</v>
+        <v>0.8882389978791092</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9012238083006128</v>
+        <v>0.9206267659902388</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8911443663883778</v>
+        <v>0.8948906955990132</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7383350046746467</v>
+        <v>0.7323625139308853</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9987645910243123</v>
+        <v>0.9988180239895746</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8551512431149386</v>
+        <v>0.8512603275919783</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8161720802136173</v>
+        <v>0.8530861216341812</v>
       </c>
       <c r="F10" t="n">
-        <v>0.794057679948586</v>
+        <v>0.7939644922879178</v>
       </c>
       <c r="G10" t="n">
-        <v>0.917082946931792</v>
+        <v>0.9157626667816885</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9121552915277958</v>
+        <v>0.9113738647267243</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8398508327479963</v>
+        <v>0.8258128337261736</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9148640301267751</v>
+        <v>0.9052828781382678</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8936383500485098</v>
+        <v>0.8932926829268293</v>
       </c>
       <c r="L10" t="n">
-        <v>0.882933195112106</v>
+        <v>0.8845397875307328</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8993914650514023</v>
+        <v>0.8947147021302556</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7389289147156128</v>
+        <v>0.7380922405242611</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9987507190044845</v>
+        <v>0.9987696146364309</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8541512925656554</v>
+        <v>0.8546301086394206</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8559807315878194</v>
+        <v>0.8621791412605373</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8009085796915167</v>
+        <v>0.8026582583547557</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9168553743961353</v>
+        <v>0.9101998324994249</v>
       </c>
       <c r="H11" t="n">
-        <v>0.907678267604147</v>
+        <v>0.9070766688718048</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8388438288823699</v>
+        <v>0.8432192030256239</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9069551183179317</v>
+        <v>0.9077464379439997</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8908224233433361</v>
+        <v>0.8864893334987928</v>
       </c>
       <c r="L11" t="n">
-        <v>0.938095161645444</v>
+        <v>0.9219546989101317</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8941209238028132</v>
+        <v>0.9020617107842792</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7568105333914288</v>
+        <v>0.7481227516262735</v>
       </c>
       <c r="C12" t="n">
-        <v>0.998768016214393</v>
+        <v>0.9989516064027306</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8492442599129667</v>
+        <v>0.8485319793980706</v>
       </c>
       <c r="E12" t="n">
-        <v>0.848658020624096</v>
+        <v>0.850761426837724</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7964411953727507</v>
+        <v>0.8056973007712084</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9137522555066713</v>
+        <v>0.9113583631671268</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9044022693086046</v>
+        <v>0.9061953375881061</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8319317274440262</v>
+        <v>0.8455032184727557</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9163928343101885</v>
+        <v>0.9027256192336868</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8948297646713749</v>
+        <v>0.8927800873175246</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9198618858023559</v>
+        <v>0.9214845326776999</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9052592981086611</v>
+        <v>0.8896444293116325</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7405494406845348</v>
+        <v>0.7441230275070667</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9987653331488298</v>
+        <v>0.9987949610430297</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8497183211101306</v>
+        <v>0.8506288799793067</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8572098537864805</v>
+        <v>0.8478870046144492</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8096931233933162</v>
+        <v>0.8022670308483291</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9192950957556936</v>
+        <v>0.916050895373246</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9101706672620395</v>
+        <v>0.9070480006289638</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8331347511460914</v>
+        <v>0.8445807721836323</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9031229555713522</v>
+        <v>0.9049382591862373</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8939258477922429</v>
+        <v>0.8891545486338305</v>
       </c>
       <c r="L13" t="n">
-        <v>0.918985771164361</v>
+        <v>0.8835547319364426</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8923271319324977</v>
+        <v>0.9052541875905121</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.730121803559738</v>
+        <v>0.7246145879632773</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9988134570694667</v>
+        <v>0.9988189944600975</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8458816111804267</v>
+        <v>0.8385386552448191</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8421001140606766</v>
+        <v>0.825984093621376</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8050626606683804</v>
+        <v>0.8076012210796916</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9152652871233035</v>
+        <v>0.9178748454393836</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9020453922532327</v>
+        <v>0.9135656822021033</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8401765715938432</v>
+        <v>0.8244637560283306</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8999651282876648</v>
+        <v>0.9072028714023644</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8887984815324563</v>
+        <v>0.8907896369666749</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9032340556309859</v>
+        <v>0.9219294704781476</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9030672052301042</v>
+        <v>0.9072393044840324</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7351815339410011</v>
+        <v>0.7461130366811978</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9987744669890456</v>
+        <v>0.9987930201019839</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8570493898542345</v>
+        <v>0.8444908097745047</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8483831569106871</v>
+        <v>0.8346003722306898</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7892906491002571</v>
+        <v>0.7874212724935732</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9149923348717506</v>
+        <v>0.9155899093484012</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9178711310360225</v>
+        <v>0.9015780130214635</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8409592096172711</v>
+        <v>0.8348239809130489</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8996626087319364</v>
+        <v>0.9084278520664471</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8936921126554006</v>
+        <v>0.8921370512849438</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9020460258339142</v>
+        <v>0.8847462019742394</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8937820325680546</v>
+        <v>0.8903813021472482</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7340681578826368</v>
+        <v>0.7497438249777215</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9986495617240946</v>
+        <v>0.9988485652677962</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8493217644015703</v>
+        <v>0.8507139922704725</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8377442230091985</v>
+        <v>0.8097593700185806</v>
       </c>
       <c r="F16" t="n">
-        <v>0.825980880462725</v>
+        <v>0.7779884318766068</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9198358332614447</v>
+        <v>0.9161133486456176</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9031386947870275</v>
+        <v>0.9124406708542572</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8386045693761285</v>
+        <v>0.8469613562266567</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8980104868478507</v>
+        <v>0.9078773931457711</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8911626260689064</v>
+        <v>0.8892624263892963</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9198595923085391</v>
+        <v>0.8847381747458809</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8959472952263289</v>
+        <v>0.8923232990438859</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7240053512115765</v>
+        <v>0.7298949135026133</v>
       </c>
       <c r="C17" t="n">
-        <v>0.998668628615545</v>
+        <v>0.9988384038705561</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8501191572076321</v>
+        <v>0.8517610160981102</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8430955244578235</v>
+        <v>0.8437562844016394</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8255976863753215</v>
+        <v>0.836577763496144</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9166832909190247</v>
+        <v>0.9181770024585921</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9107666192192768</v>
+        <v>0.9064616047526735</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8426220151415714</v>
+        <v>0.8313417461716076</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9025769673830271</v>
+        <v>0.8944717159117835</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8888379662011237</v>
+        <v>0.8935555027526455</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8851326556823602</v>
+        <v>0.9207070382738249</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8932253054971927</v>
+        <v>0.896176310320883</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7417684615704623</v>
+        <v>0.7333770874432638</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9987124710485807</v>
+        <v>0.9988459392887341</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8461721341407747</v>
+        <v>0.8488515071056876</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8385905547821239</v>
+        <v>0.8392489853724364</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8149445694087405</v>
+        <v>0.8449638496143959</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9185831733810674</v>
+        <v>0.9173354558459857</v>
       </c>
       <c r="H18" t="n">
-        <v>0.913547438774841</v>
+        <v>0.9125197257057275</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8217146739104324</v>
+        <v>0.8482609485246143</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9059786358603403</v>
+        <v>0.9170168740341356</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8939646273775411</v>
+        <v>0.890846396177884</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9378176488936186</v>
+        <v>0.9223847290007707</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9093473932205145</v>
+        <v>0.8905320624326449</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.739237912151673</v>
+        <v>0.736002607730355</v>
       </c>
       <c r="C19" t="n">
-        <v>0.99877549454607</v>
+        <v>0.9988644353151713</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8547660981102219</v>
+        <v>0.8610762948479961</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8535884855397616</v>
+        <v>0.8418081684215757</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7671891066838046</v>
+        <v>0.8083603791773779</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9180911853720956</v>
+        <v>0.9195711931360708</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9103917602257667</v>
+        <v>0.9096876508069025</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8269923158302354</v>
+        <v>0.8337521175427184</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9070063454594496</v>
+        <v>0.9043786725203455</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8818294375126915</v>
+        <v>0.8946062532433836</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8636414718725918</v>
+        <v>0.9192747513852703</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8945320011064271</v>
+        <v>0.8976337662155145</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7634056717587839</v>
+        <v>0.73438618713038</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9987898232579084</v>
+        <v>0.9988002700876552</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8424324236937403</v>
+        <v>0.843594991022793</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8471400585910051</v>
+        <v>0.8410472462771108</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7951622750642674</v>
+        <v>0.8072734575835476</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9219787892512078</v>
+        <v>0.9155566608436854</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9146902591826336</v>
+        <v>0.9167005111200205</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8483373386079324</v>
+        <v>0.8506338455152296</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9054928162782345</v>
+        <v>0.9046396515213155</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8819866711039913</v>
+        <v>0.8856541622481442</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9027925580712635</v>
+        <v>0.937540136141793</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9018509019106311</v>
+        <v>0.8910373649146319</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7221360398844804</v>
+        <v>0.7543547016874709</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9988796774110312</v>
+        <v>0.9988611242980929</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8432141254070175</v>
+        <v>0.8424409824716228</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8592985074279201</v>
+        <v>0.8304494642875168</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8169079370179949</v>
+        <v>0.8242753856041132</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9122861761703474</v>
+        <v>0.9190989745082816</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9126782697759838</v>
+        <v>0.9051202784815734</v>
       </c>
       <c r="I21" t="n">
-        <v>0.850021763967134</v>
+        <v>0.8293950001489366</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9055395726874019</v>
+        <v>0.9095406918607337</v>
       </c>
       <c r="K21" t="n">
-        <v>0.892683843437648</v>
+        <v>0.8857846026714199</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9189123793622254</v>
+        <v>0.9213813254559466</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8984198277883148</v>
+        <v>0.8934619863689705</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/Error_BBoxes/metrics.xlsx
+++ b/models/Random Forests/Error_BBoxes/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7519746824633965</v>
+        <v>0.7178423018067975</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9987653331488298</v>
+        <v>0.999286576246426</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8493545730501202</v>
+        <v>0.8293672374513118</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8476067057428658</v>
+        <v>0.8680271614046208</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7356418701799486</v>
+        <v>0.8853229434447301</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9157278457125603</v>
+        <v>0.9312046356755661</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9116010388328724</v>
+        <v>0.9176508655557353</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8227567499526767</v>
+        <v>0.7960933226065969</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9116560933846574</v>
+        <v>0.9097004048582996</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8874281520046929</v>
+        <v>0.9070905460126923</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9031170874463322</v>
+        <v>0.9263879974326058</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8970926901064841</v>
+        <v>0.9207643605387361</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7251677180060386</v>
+        <v>0.7755822605326332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9987812031962048</v>
+        <v>0.9983047940687582</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8506635905784974</v>
+        <v>0.8435305357536561</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8566337270199571</v>
+        <v>0.9125099361488787</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7862917737789203</v>
+        <v>0.9131185732647815</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9187588512911203</v>
+        <v>0.9230006431397895</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9130835344815977</v>
+        <v>0.9082316228792994</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8375648955377621</v>
+        <v>0.9239581657280772</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9077065739138729</v>
+        <v>0.9284036125817502</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8862806288215519</v>
+        <v>0.8524022319432634</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9037489449928443</v>
+        <v>0.8114971116816432</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8920802300244219</v>
+        <v>0.9430643490272821</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7496042424335313</v>
+        <v>0.7677748727973587</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9988051795267712</v>
+        <v>0.9989664902606374</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8555739516448069</v>
+        <v>0.8811993826706842</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8430070090246918</v>
+        <v>0.7874365737757731</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8202594794344473</v>
+        <v>0.8740962403598971</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9220655049459398</v>
+        <v>0.9150960432646156</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9125323223578847</v>
+        <v>0.8974865156418554</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8152589912088948</v>
+        <v>0.8509283990345937</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9063210194461954</v>
+        <v>0.9060895642528295</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8912535818235149</v>
+        <v>0.8825095773684811</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9210166599390849</v>
+        <v>0.9967902423367035</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8980106669290066</v>
+        <v>0.9182940025325198</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7439582653666696</v>
+        <v>0.7455088277430593</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9988640927961631</v>
+        <v>0.9983818646640347</v>
       </c>
       <c r="D5" t="n">
-        <v>0.850669296430419</v>
+        <v>0.9009338615782664</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8609344900385199</v>
+        <v>0.8920848099226804</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8083410989717225</v>
+        <v>0.8557047316838046</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9217723340090866</v>
+        <v>0.9323722092387251</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9141010399187907</v>
+        <v>0.8810302049622438</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8454143369292725</v>
+        <v>0.8875044247787611</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8998464675998574</v>
+        <v>0.9176973819830962</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8935239502718801</v>
+        <v>0.9016665059480498</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8858138233459322</v>
+        <v>0.9706931293354017</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8939257658909966</v>
+        <v>0.9396500518015425</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7384442074886308</v>
+        <v>0.7103707552004718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9988178527300706</v>
+        <v>0.9984113334849993</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8537666230485985</v>
+        <v>0.8726743502293308</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8347851676086313</v>
+        <v>0.8218895493847689</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8189042416452442</v>
+        <v>0.9107343724891531</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9155719371836899</v>
+        <v>0.9226523188460906</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9073789885235811</v>
+        <v>0.8959217815808239</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8159416975510011</v>
+        <v>0.8636884454457676</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9052605244765146</v>
+        <v>0.9198474994393362</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8900454214706346</v>
+        <v>0.9210873593146686</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9385171645077245</v>
+        <v>0.9977331086502969</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8904311296992014</v>
+        <v>0.8557750759878419</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7404963445794899</v>
+        <v>0.7638036809815951</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9988906380192902</v>
+        <v>0.9983443708609271</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8438802836188796</v>
+        <v>0.8490306459910341</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8628756179580732</v>
+        <v>0.8667231230419942</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7774783097686375</v>
+        <v>0.858491323907455</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9184964576863355</v>
+        <v>0.9238101121851229</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9105854880486006</v>
+        <v>0.8890174646744122</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8332394872351689</v>
+        <v>0.8833467417538214</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9088514539566727</v>
+        <v>0.9046602304578013</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8913445375781233</v>
+        <v>0.8858195743584388</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9035482642838795</v>
+        <v>0.9759407092426188</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9033866126144198</v>
+        <v>0.9127247611373316</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7432513208340358</v>
+        <v>0.7225084583959231</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9988342365559577</v>
+        <v>0.9986804264295206</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8506597866772162</v>
+        <v>0.8549717057396928</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8644393906100654</v>
+        <v>0.851427947983936</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8164058483290489</v>
+        <v>0.8517934607969152</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9198239267023234</v>
+        <v>0.9555156365341418</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9080127304372907</v>
+        <v>0.9020316497522478</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8261284833157332</v>
+        <v>0.8506709573612228</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9104607313223978</v>
+        <v>0.9248657739022113</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8904972036393584</v>
+        <v>0.8911401670889184</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9182163039888445</v>
+        <v>0.9707056322207959</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8938583709329059</v>
+        <v>0.8760953148382641</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7463604535830565</v>
+        <v>0.7244177537439318</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9988123724259411</v>
+        <v>0.9991192427918163</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8422636255743891</v>
+        <v>0.860718747703388</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8353791527520146</v>
+        <v>0.8364459165592784</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8075297236503856</v>
+        <v>0.8502671111825193</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9192050102800783</v>
+        <v>0.9149091208627578</v>
       </c>
       <c r="H9" t="n">
-        <v>0.912920212370868</v>
+        <v>0.8995064724919094</v>
       </c>
       <c r="I9" t="n">
-        <v>0.842354890070346</v>
+        <v>0.8763507642799678</v>
       </c>
       <c r="J9" t="n">
-        <v>0.905559132141436</v>
+        <v>0.9197391799432617</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8882389978791092</v>
+        <v>0.9299120723058446</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9206267659902388</v>
+        <v>0.9064266481214003</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8948906955990132</v>
+        <v>0.966197766777944</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7323625139308853</v>
+        <v>0.8032198329617172</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9988180239895746</v>
+        <v>0.998355480135922</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8512603275919783</v>
+        <v>0.8958862733321011</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8530861216341812</v>
+        <v>0.8512806056701031</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7939644922879178</v>
+        <v>0.8738251124678663</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9157626667816885</v>
+        <v>0.9190679230271991</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9113738647267243</v>
+        <v>0.9013349514563106</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8258128337261736</v>
+        <v>0.8244891391794047</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9052828781382678</v>
+        <v>0.9096528943467719</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8932926829268293</v>
+        <v>0.8852337579226973</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8845397875307328</v>
+        <v>0.9948376397581984</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8947147021302556</v>
+        <v>0.9126027397260273</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7380922405242611</v>
+        <v>0.7294526077829808</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9987696146364309</v>
+        <v>0.9986130910016844</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8546301086394206</v>
+        <v>0.8610284605433376</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8621791412605373</v>
+        <v>0.8409180661789158</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8026582583547557</v>
+        <v>0.8824321067009481</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9101998324994249</v>
+        <v>0.934732942950936</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9070766688718048</v>
+        <v>0.9068345126432998</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8432192030256239</v>
+        <v>0.8480334728033473</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9077464379439997</v>
+        <v>0.9244399591338367</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8864893334987928</v>
+        <v>0.8893778964627054</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9219546989101317</v>
+        <v>0.9861278285989409</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9020617107842792</v>
+        <v>0.9052500690798563</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7481227516262735</v>
+        <v>0.7476625345706223</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9989516064027306</v>
+        <v>0.9985675978553544</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8485319793980706</v>
+        <v>0.8998192107003747</v>
       </c>
       <c r="E12" t="n">
-        <v>0.850761426837724</v>
+        <v>0.8800076891505048</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8056973007712084</v>
+        <v>0.8578285668380463</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9113583631671268</v>
+        <v>0.9141772721368399</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9061953375881061</v>
+        <v>0.9033643286287392</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8455032184727557</v>
+        <v>0.8261174577634754</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9027256192336868</v>
+        <v>0.937614450327001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8927800873175246</v>
+        <v>0.9136299926031395</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9214845326776999</v>
+        <v>0.9857890725288831</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8896444293116325</v>
+        <v>0.9067963623805687</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7441230275070667</v>
+        <v>0.7827174965955833</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9987949610430297</v>
+        <v>0.9990442551856012</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8506288799793067</v>
+        <v>0.8890100683471742</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8478870046144492</v>
+        <v>0.8535632458605873</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8022670308483291</v>
+        <v>0.8844693926735218</v>
       </c>
       <c r="G13" t="n">
-        <v>0.916050895373246</v>
+        <v>0.9172535713267372</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9070480006289638</v>
+        <v>0.9085305158783478</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8445807721836323</v>
+        <v>0.8138374899436847</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9049382591862373</v>
+        <v>0.9111778262223607</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8891545486338305</v>
+        <v>0.9059993337482796</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8835547319364426</v>
+        <v>0.9965500641848524</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9052541875905121</v>
+        <v>0.8880027627489353</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7246145879632773</v>
+        <v>0.7653974459839695</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9988189944600975</v>
+        <v>0.9991348652097778</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8385386552448191</v>
+        <v>0.872080546777394</v>
       </c>
       <c r="E14" t="n">
-        <v>0.825984093621376</v>
+        <v>0.8367580138530928</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8076012210796916</v>
+        <v>0.9151771368894601</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9178748454393836</v>
+        <v>0.9339086741498991</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9135656822021033</v>
+        <v>0.8963942826321468</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8244637560283306</v>
+        <v>0.8731263073209976</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9072028714023644</v>
+        <v>0.9207968901846454</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8907896369666749</v>
+        <v>0.8787531449711146</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9219294704781476</v>
+        <v>0.924668770841135</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9072393044840324</v>
+        <v>0.8442500287786348</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7461130366811978</v>
+        <v>0.7454744718642531</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9987930201019839</v>
+        <v>0.9987592328490152</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8444908097745047</v>
+        <v>0.8565508917020883</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8346003722306898</v>
+        <v>0.8592491543170103</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7874212724935732</v>
+        <v>0.764173963688946</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9155899093484012</v>
+        <v>0.9159057853910795</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9015780130214635</v>
+        <v>0.8858683926645091</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8348239809130489</v>
+        <v>0.8020144810941271</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9084278520664471</v>
+        <v>0.9128014842300556</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8921370512849438</v>
+        <v>0.8866955667961183</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8847462019742394</v>
+        <v>0.9587813620071685</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8903813021472482</v>
+        <v>0.908893749280534</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7497438249777215</v>
+        <v>0.7991245375213248</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9988485652677962</v>
+        <v>0.9979048525465625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8507139922704725</v>
+        <v>0.8533870398682817</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8097593700185806</v>
+        <v>0.863355295976056</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7779884318766068</v>
+        <v>0.8774606299212598</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9161133486456176</v>
+        <v>0.9349547511312218</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9124406708542572</v>
+        <v>0.9123772694860403</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8469613562266567</v>
+        <v>0.911419375603476</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9078773931457711</v>
+        <v>0.9249233759437842</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8892624263892963</v>
+        <v>0.901785753957851</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8847381747458809</v>
+        <v>0.95305729417429</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8923232990438859</v>
+        <v>0.9702611218568665</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7298949135026133</v>
+        <v>0.7802010360657579</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9988384038705561</v>
+        <v>0.9988949743028583</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8517610160981102</v>
+        <v>0.8586521643271845</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8437562844016394</v>
+        <v>0.7821476628619225</v>
       </c>
       <c r="F17" t="n">
-        <v>0.836577763496144</v>
+        <v>0.8902735379177378</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9181770024585921</v>
+        <v>0.9485773304312839</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9064616047526735</v>
+        <v>0.9094765533524003</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8313417461716076</v>
+        <v>0.8461721641190668</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8944717159117835</v>
+        <v>0.8908676424789785</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8935555027526455</v>
+        <v>0.9177682361486569</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9207070382738249</v>
+        <v>0.9424342105263159</v>
       </c>
       <c r="M17" t="n">
-        <v>0.896176310320883</v>
+        <v>0.9166800966962128</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7333770874432638</v>
+        <v>0.7667026996672798</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9988459392887341</v>
+        <v>0.9986755661217105</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8488515071056876</v>
+        <v>0.8650518115675755</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8392489853724364</v>
+        <v>0.8870162459281272</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8449638496143959</v>
+        <v>0.9205796111825193</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9173354558459857</v>
+        <v>0.9284594109092984</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9125197257057275</v>
+        <v>0.9208180344906067</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8482609485246143</v>
+        <v>0.9000032180209171</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9170168740341356</v>
+        <v>0.9114194954842729</v>
       </c>
       <c r="K18" t="n">
-        <v>0.890846396177884</v>
+        <v>0.8903972087559502</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9223847290007707</v>
+        <v>0.9846758664955072</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8905320624326449</v>
+        <v>0.9123310694140669</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.736002607730355</v>
+        <v>0.756990562440092</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9988644353151713</v>
+        <v>0.9988540088513148</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8610762948479961</v>
+        <v>0.8510178584552068</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8418081684215757</v>
+        <v>0.798365012886598</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8083603791773779</v>
+        <v>0.8656460877249356</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9195711931360708</v>
+        <v>0.9502517116072475</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9096876508069025</v>
+        <v>0.9183090614886731</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8337521175427184</v>
+        <v>0.9061367658889784</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9043786725203455</v>
+        <v>0.9074564890891421</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8946062532433836</v>
+        <v>0.8866166685660685</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9192747513852703</v>
+        <v>0.9924035735301984</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8976337662155145</v>
+        <v>0.9106296765281455</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.73438618713038</v>
+        <v>0.7886151488812008</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9988002700876552</v>
+        <v>0.9979619687857146</v>
       </c>
       <c r="D20" t="n">
-        <v>0.843594991022793</v>
+        <v>0.8701314452042137</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8410472462771108</v>
+        <v>0.847802230992268</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8072734575835476</v>
+        <v>0.7498895404884318</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9155566608436854</v>
+        <v>0.8971520560887076</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9167005111200205</v>
+        <v>0.8906742179072277</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8506338455152296</v>
+        <v>0.8710410297666935</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9046396515213155</v>
+        <v>0.9293371028064906</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8856541622481442</v>
+        <v>0.915592043551823</v>
       </c>
       <c r="L20" t="n">
-        <v>0.937540136141793</v>
+        <v>0.8995435011323312</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8910373649146319</v>
+        <v>0.8769264418096004</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,1270 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7543547016874709</v>
+        <v>0.7245452439289801</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9988611242980929</v>
+        <v>0.9990131274571805</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8424409824716228</v>
+        <v>0.8780577443255322</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8304494642875168</v>
+        <v>0.8946832391087463</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8242753856041132</v>
+        <v>0.8644293347260164</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9190989745082816</v>
+        <v>0.9200888500196458</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9051202784815734</v>
+        <v>0.8621249520048269</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8293950001489366</v>
+        <v>0.8115867396202124</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9095406918607337</v>
+        <v>0.9450175674665471</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8857846026714199</v>
+        <v>0.8588347944316823</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9213813254559466</v>
+        <v>0.9742617557374418</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8934619863689705</v>
+        <v>0.9237197199963156</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8085629852171106</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9985724581631646</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8477430734180936</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8860706882309239</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.878022573907455</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9111104774758505</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8947841800597238</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.7930619469026549</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.909939582684522</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9121772758673541</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.9889481707317074</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8748175434557385</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8034914573710884</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9988925441489531</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8777305798486074</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8463053112287574</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9135302859897172</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9494707561486381</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8774730653533656</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8948608205953339</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.9291884148240424</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9221384050284472</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.7864951059050065</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.9195832853689421</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7551593940997214</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9988737972473994</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.865942529580363</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8140957232603093</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8267191516709511</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9110407775971918</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9078667745415318</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.7785776347546258</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9222055344504324</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.911136485171516</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.9725387399917974</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.9166916081501093</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.7333399754699025</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9991213257808779</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8603394705230086</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8300579896907218</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8237066195372751</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9426169136293571</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9270846817691478</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.912592115848753</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9048772467139814</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.8613736181851653</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.9762121293175698</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.9044457234948774</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7508617724078378</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9977076171811134</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.871019052099259</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8422430994346525</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7577886469548449</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.93335297920073</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8949728484449564</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.924093981332475</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9102514265779572</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8778164836776133</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.9899494463168029</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.922041079487888</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8001747834510256</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9991227144402522</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8793826706842066</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8820910333075297</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8761548039845758</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9318208459664364</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8834838309856066</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8597779565567176</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9215421986919963</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.8913616664926665</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.9959884467265725</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8999976977092206</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7364630568151507</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9988626879724045</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.844068494157419</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7997236062115867</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9077160989717223</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9003671916334801</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8997255120256445</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.7891810136765889</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9114680784802242</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.903176530406501</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.9817674903722722</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.9530102451939679</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7839839764181248</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9987911720146253</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8614183875946204</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8472032055412371</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8472344955012854</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9186174712250388</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.9163295577130529</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.835880933226066</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9306328592042878</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.8874407167465876</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.9791098272080458</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.9188442500287786</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7600207509507989</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9980407752052091</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8846216041397154</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8568580863402062</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.8218137451799485</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.936643814330466</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9133710895361381</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8689171359613838</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.9343900619410824</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9187983799563431</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.9105190891421031</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8823506388856912</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7586019278427959</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9987755405883945</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8698753381159591</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8404815846358495</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.8220813916117627</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.9505906434972178</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8945230651088806</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.8950048278081751</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.8990306745408786</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8769567091296061</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.9802700208634249</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.911303767154831</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.7872204517695947</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9981798147250662</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8677063276254869</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.8635435554008489</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.8775807358611825</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9376091040714234</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8838485352871978</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.853773129525342</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.9208321395203987</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9256493355042636</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9848062419768934</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.9163462645332107</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.7778091701646754</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9982060256707572</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.900386565738223</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8856966214496127</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.7623061937660668</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9173644574973309</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9307445726241435</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.8673531777956556</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.93139084397384</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.8631312954212728</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.9900312901155328</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.9308115574997121</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.735126481167825</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9989161513583171</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8890776806055707</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.8565761920103092</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9344975096401028</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.9301860669942561</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9020604099244875</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.8190249396621078</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9319801513679064</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.933881091600845</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.9810089338254961</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.8663266950615862</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7905562560337512</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.998996346437186</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8403656902605803</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.8332947406572164</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.8145786471722365</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.9384043558251705</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.905876483279396</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8386098149637973</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9155107930618136</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.871974472039344</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.8999447208402432</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8866098768274434</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.7370593727841391</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9990454782314074</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8516994002116899</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.8184756401729298</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.8714747710107664</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9254027402816331</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8661894575174154</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.9091921467653685</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.9228352146719493</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.8900932644328819</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.9736097737120848</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.9247950630929355</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7307878592185987</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9988481070489739</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8862409054163298</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.8296957070641473</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8558754418380463</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9171680305665649</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9055361016126512</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.8028189863234111</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.9286726876362503</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8836271715782857</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.9804537066752247</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.9338091400943939</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.7847987533517711</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.998701256320136</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8365164988608804</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.7909849905703999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8319308322622108</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9587661854206861</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.889464433104182</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.9492968624296058</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.9219632513235752</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.8930052335825933</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.9983753209242618</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.9030044894670197</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7773635985721696</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9986757397041323</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.8473315205408981</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.8400300016108248</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7848851221079691</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.8877895317118607</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.8898247033441209</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.9048173773129525</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.9310058799854718</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.9160369419046034</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.9745715865118849</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8931575918038448</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.7317630406326978</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.9987245163646564</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8922738403252634</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.8695382973582475</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8855237789203085</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9293048580378898</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.8946655879180151</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7917940466613033</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.9257345073671605</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.8761166291169535</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.9592984896306995</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.9057879590192242</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.7673723488651282</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9982476663960332</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8622868399388451</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8898975307615564</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8837477904547646</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9239641557980658</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.9135318962207229</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.8357064692629548</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.9119533527696793</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9111144188857144</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.9891871288717702</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.9449019066040343</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7649478457413206</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.9990348817348244</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.8647108106121849</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.8682401716550896</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8380161471722365</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.9365984558308701</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.8897441311399888</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.8336154465004023</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.9314506384303955</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.8996825791719514</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.9746971277278562</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.899228732588926</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7838616613553088</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.9979722101486005</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.8743470272653781</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.8906582016739488</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.7984515584832905</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.9257347792889978</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8825652148876136</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.8479806918744971</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.9144565555901589</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.8969479534675772</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.9982349165596919</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.9250857603315298</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.7612884828787478</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9986689699896824</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.8943191004629971</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.8868798324742269</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.8978852024421594</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9504734839484347</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8913727076591155</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.8501045856798068</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9348833328425166</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.867461931604001</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.9045810374650047</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.9387452515252677</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.7527132555287198</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9987595800138588</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.8476771853631491</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.8442131121134021</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8946818766066837</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.9258676843518473</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8902454153182308</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.8651777956556719</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.9149561700582108</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9151120793190207</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.8836284527184864</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.9187429492344884</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.7376210167159276</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9988691143332018</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.8616253087145713</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.8276053791153974</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.8910091595693396</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.921033119130005</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.933766661181504</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.9046797553910525</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9016869751563631</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9300072425452882</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.9630877868720912</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.9196693377544441</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7780601142760877</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9988595634888123</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.8510031601381641</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.8810467635430359</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.8397734575835476</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9398094025136311</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8583137499005975</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.8684730490748189</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.9048919339769542</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.8954199439793332</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.9978939345314507</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.9262783469552205</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.7394603473206891</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9977524548026089</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.8799941206731829</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.8598548413073634</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.8919756185732648</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9155253311536281</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9225318704943252</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.7967304907481899</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9179345998131423</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.8682268061119829</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.9783777278562259</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.932494532059399</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7502138653455686</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9987699949591665</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.8593723818622767</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.8625966494845361</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8806133515424164</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9291421529025248</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9113106796116506</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.9047272727272726</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.9298352818760982</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9147942947813203</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.933611512330819</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.9114170599746747</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.7323573973360452</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9990935525933908</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.8379198623175014</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.8578547841494845</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.7965737467866324</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.9211392397195565</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9009978425026969</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.8381078037007241</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.8966511568552384</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.9031874884940081</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.9894702116656859</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8946701968458616</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.7933536461221997</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9989068569031335</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.8683494060919674</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.8673667692051878</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.8681001928330387</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.9349975284231339</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9180105315122594</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.8891857096878018</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.9568139343649549</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9066000470987607</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.9543612582250041</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.8758819194989408</v>
       </c>
     </row>
   </sheetData>
